--- a/sample-data.xlsx
+++ b/sample-data.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -656,19 +656,36 @@
         <v>5</v>
       </c>
       <c r="E15" t="str">
-        <v>政府</v>
+        <v>["政府","漁夫"]</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>產銷履歷中心</v>
+      </c>
+      <c r="B16">
+        <v>3.8</v>
+      </c>
+      <c r="C16">
+        <v>1.8</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" t="str">
+        <v>["政府","市場通路"]</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E16"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -993,16 +1010,33 @@
         <v>技術支援</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>產銷履歷中心</v>
+      </c>
+      <c r="B20" t="str">
+        <v>超市量販店</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="str">
+        <v>dashed</v>
+      </c>
+      <c r="E20" t="str">
+        <v>履歷認證</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E19"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E20"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1031,25 +1065,9 @@
         <v>影響力</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>XAxisCenter</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>YAxisCenter</v>
-      </c>
-      <c r="B5">
-        <v>2.5</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B3"/>
   </ignoredErrors>
 </worksheet>
 </file>